--- a/WebServer/Config/duty.xlsx
+++ b/WebServer/Config/duty.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="28">
   <si>
     <t>2021年9月份</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>徐文科</t>
+  </si>
+  <si>
+    <t>蒋豪</t>
+  </si>
+  <si>
+    <t>常白</t>
   </si>
 </sst>
 </file>
@@ -100,10 +106,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -174,6 +180,36 @@
       <color rgb="FFFFFFFF"/>
       <name val="Tahoma"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -199,21 +235,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,17 +303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -259,38 +318,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -298,27 +325,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="42">
     <fill>
@@ -371,13 +377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF8F959E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF6425D0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8F959E"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -389,25 +407,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,37 +521,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,37 +539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,72 +557,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -622,6 +628,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -633,6 +654,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,17 +719,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -710,15 +740,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -727,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,137 +760,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,13 +948,19 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,11 +981,20 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1295,10 +1331,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1367,7 +1403,7 @@
       <c r="U1" s="1">
         <v>20</v>
       </c>
-      <c r="V1" s="22">
+      <c r="V1" s="24">
         <v>21</v>
       </c>
       <c r="W1" s="1">
@@ -1436,7 +1472,7 @@
       <c r="L2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -1463,7 +1499,7 @@
       <c r="U2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="25" t="s">
         <v>9</v>
       </c>
       <c r="W2" s="3" t="s">
@@ -1478,7 +1514,7 @@
       <c r="Z2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="21" t="s">
         <v>6</v>
       </c>
       <c r="AB2" s="3" t="s">
@@ -1559,7 +1595,7 @@
       <c r="U3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="26" t="s">
         <v>14</v>
       </c>
       <c r="W3" s="6" t="s">
@@ -1655,7 +1691,7 @@
       <c r="U4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="27" t="s">
         <v>13</v>
       </c>
       <c r="W4" s="5" t="s">
@@ -1751,7 +1787,7 @@
       <c r="U5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="V5" s="26" t="s">
+      <c r="V5" s="28" t="s">
         <v>17</v>
       </c>
       <c r="W5" s="8" t="s">
@@ -1847,7 +1883,7 @@
       <c r="U6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="V6" s="26" t="s">
+      <c r="V6" s="28" t="s">
         <v>17</v>
       </c>
       <c r="W6" s="6" t="s">
@@ -1943,7 +1979,7 @@
       <c r="U7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="V7" s="25" t="s">
+      <c r="V7" s="27" t="s">
         <v>13</v>
       </c>
       <c r="W7" s="11" t="s">
@@ -2039,7 +2075,7 @@
       <c r="U8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="V8" s="27" t="s">
+      <c r="V8" s="29" t="s">
         <v>21</v>
       </c>
       <c r="W8" s="16" t="s">
@@ -2135,7 +2171,7 @@
       <c r="U9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="V9" s="25" t="s">
+      <c r="V9" s="30" t="s">
         <v>13</v>
       </c>
       <c r="W9" s="17" t="s">
@@ -2231,7 +2267,7 @@
       <c r="U10" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="V10" s="28" t="s">
+      <c r="V10" s="31" t="s">
         <v>22</v>
       </c>
       <c r="W10" s="7" t="s">
@@ -2300,26 +2336,90 @@
       <c r="L11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="21"/>
-      <c r="AB11" s="21"/>
-      <c r="AC11" s="21"/>
-      <c r="AD11" s="29"/>
-      <c r="AE11" s="21"/>
-      <c r="AF11" s="21"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="32"/>
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23"/>
+    </row>
+    <row r="12" ht="15.15" spans="1:32">
+      <c r="A12" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="T12" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="W12" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF12" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
